--- a/medicine/Enfance/Makura-nage/Makura-nage.xlsx
+++ b/medicine/Enfance/Makura-nage/Makura-nage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le makura-nage (du japonais : 枕投げ, まくらなげ) est un jeu pratiqué au Japon, dans lequel les enfants se jettent mutuellement des oreillers, typiquement le soir après que le futon est préparé pour la nuit (ou plus spécialement après l'extinction des feux), dans les dortoirs des centres de vacances, des écoles, ou des ryokan.
 Ce jeu se rapproche de la bataille de polochons, à la différence que les participants n'y font principalement que se lancer les oreillers, pas vraiment se battre avec. En effet, « makura » (枕) signifie « oreiller », et « nageru » (投げる) signifie « jeter ».
